--- a/biology/Botanique/Alchemilla_conjuncta/Alchemilla_conjuncta.xlsx
+++ b/biology/Botanique/Alchemilla_conjuncta/Alchemilla_conjuncta.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Alchemilla conjucta est une plante vivace de la famille des Rosaceae, bien rustique.
 </t>
@@ -513,13 +525,88 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Feuillage
-Elle a un port étalé. Ses feuilles sont arrondies, longues de 3 à 5 cm.
+          <t>Feuillage</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Elle a un port étalé. Ses feuilles sont arrondies, longues de 3 à 5 cm.
 Ses feuilles sont bleu-vert sur le dessus ; duvet argenté dessous.
-Floraison
-De juin à septembre, cymes de très petites fleurs jaune verdâtre.
-Taille
-Environ 40 cm de haut pour 30 cm de diamètre
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Alchemilla_conjuncta</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Alchemilla_conjuncta</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Caractéristiques</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Floraison</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">De juin à septembre, cymes de très petites fleurs jaune verdâtre.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Alchemilla_conjuncta</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Alchemilla_conjuncta</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Caractéristiques</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Taille</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Environ 40 cm de haut pour 30 cm de diamètre
 </t>
         </is>
       </c>
